--- a/DataBank/Dado.xlsx
+++ b/DataBank/Dado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EF6AC3-D08D-4424-B5B0-6FFA268B440F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC56657-E096-4FC7-AB9E-E3BC79E9EEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1101"/>
+  <dimension ref="A1:G1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22601,6 +22601,2566 @@
         <v>20</v>
       </c>
     </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1102" s="3">
+        <v>338958</v>
+      </c>
+      <c r="B1102" s="4">
+        <v>405.64600000000002</v>
+      </c>
+      <c r="C1102" s="4">
+        <v>7.992</v>
+      </c>
+      <c r="D1102" s="4">
+        <v>120</v>
+      </c>
+      <c r="E1102" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1103" s="3">
+        <v>668461</v>
+      </c>
+      <c r="B1103" s="4">
+        <v>114.268</v>
+      </c>
+      <c r="C1103" s="4">
+        <v>8.31</v>
+      </c>
+      <c r="D1103" s="4">
+        <v>63</v>
+      </c>
+      <c r="E1103" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1104" s="3">
+        <v>632856</v>
+      </c>
+      <c r="B1104" s="4">
+        <v>54.927999999999997</v>
+      </c>
+      <c r="C1104" s="4">
+        <v>7.5609999999999999</v>
+      </c>
+      <c r="D1104" s="4">
+        <v>41</v>
+      </c>
+      <c r="E1104" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1104" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1105" s="3">
+        <v>436270</v>
+      </c>
+      <c r="B1105" s="4">
+        <v>12157.648999999999</v>
+      </c>
+      <c r="C1105" s="4">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="D1105" s="4">
+        <v>1195</v>
+      </c>
+      <c r="E1105" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1105" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1106" s="3">
+        <v>505642</v>
+      </c>
+      <c r="B1106" s="4">
+        <v>3747.0970000000002</v>
+      </c>
+      <c r="C1106" s="4">
+        <v>7.49</v>
+      </c>
+      <c r="D1106" s="4">
+        <v>806</v>
+      </c>
+      <c r="E1106" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1106" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1107" s="3">
+        <v>823766</v>
+      </c>
+      <c r="B1107" s="4">
+        <v>93.503</v>
+      </c>
+      <c r="C1107" s="4">
+        <v>6.9889999999999999</v>
+      </c>
+      <c r="D1107" s="4">
+        <v>93</v>
+      </c>
+      <c r="E1107" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1107" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1108" s="3">
+        <v>882598</v>
+      </c>
+      <c r="B1108" s="4">
+        <v>4162.7370000000001</v>
+      </c>
+      <c r="C1108" s="4">
+        <v>6.8419999999999996</v>
+      </c>
+      <c r="D1108" s="4">
+        <v>695</v>
+      </c>
+      <c r="E1108" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1108" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1109" s="3">
+        <v>802372</v>
+      </c>
+      <c r="B1109" s="4">
+        <v>68.944000000000003</v>
+      </c>
+      <c r="C1109" s="4">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="D1109" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1109" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1109" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1110" s="3">
+        <v>457232</v>
+      </c>
+      <c r="B1110" s="4">
+        <v>92.932000000000002</v>
+      </c>
+      <c r="C1110" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="D1110" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1110" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1110" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1111" s="3">
+        <v>929340</v>
+      </c>
+      <c r="B1111" s="4">
+        <v>23.559000000000001</v>
+      </c>
+      <c r="C1111" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1111" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1111" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1111" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1112" s="3">
+        <v>936960</v>
+      </c>
+      <c r="B1112" s="4">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="C1112" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D1112" s="4">
+        <v>17</v>
+      </c>
+      <c r="E1112" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1112" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1113" s="3">
+        <v>754452</v>
+      </c>
+      <c r="B1113" s="4">
+        <v>70.349000000000004</v>
+      </c>
+      <c r="C1113" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D1113" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1113" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1113" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1114" s="3">
+        <v>817758</v>
+      </c>
+      <c r="B1114" s="4">
+        <v>132.45099999999999</v>
+      </c>
+      <c r="C1114" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="D1114" s="4">
+        <v>32</v>
+      </c>
+      <c r="E1114" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1114" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1115" s="3">
+        <v>939210</v>
+      </c>
+      <c r="B1115" s="4">
+        <v>51.759</v>
+      </c>
+      <c r="C1115" s="4">
+        <v>8</v>
+      </c>
+      <c r="D1115" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1115" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1115" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1116" s="3">
+        <v>619730</v>
+      </c>
+      <c r="B1116" s="4">
+        <v>438.375</v>
+      </c>
+      <c r="C1116" s="4">
+        <v>6.9269999999999996</v>
+      </c>
+      <c r="D1116" s="4">
+        <v>967</v>
+      </c>
+      <c r="E1116" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1116" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1117" s="3">
+        <v>664469</v>
+      </c>
+      <c r="B1117" s="4">
+        <v>343.73</v>
+      </c>
+      <c r="C1117" s="4">
+        <v>6.1340000000000003</v>
+      </c>
+      <c r="D1117" s="4">
+        <v>332</v>
+      </c>
+      <c r="E1117" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1117" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1118" s="3">
+        <v>829280</v>
+      </c>
+      <c r="B1118" s="4">
+        <v>1948.1969999999999</v>
+      </c>
+      <c r="C1118" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="D1118" s="4">
+        <v>978</v>
+      </c>
+      <c r="E1118" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1118" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1119" s="3">
+        <v>1018403</v>
+      </c>
+      <c r="B1119" s="4">
+        <v>137.376</v>
+      </c>
+      <c r="C1119" s="4">
+        <v>8.875</v>
+      </c>
+      <c r="D1119" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1119" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1119" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1120" s="3">
+        <v>361743</v>
+      </c>
+      <c r="B1120" s="4">
+        <v>812.61199999999997</v>
+      </c>
+      <c r="C1120" s="4">
+        <v>8.3450000000000006</v>
+      </c>
+      <c r="D1120" s="4">
+        <v>4778</v>
+      </c>
+      <c r="E1120" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1120" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1121" s="3">
+        <v>593643</v>
+      </c>
+      <c r="B1121" s="4">
+        <v>228.57499999999999</v>
+      </c>
+      <c r="C1121" s="4">
+        <v>7.649</v>
+      </c>
+      <c r="D1121" s="4">
+        <v>56</v>
+      </c>
+      <c r="E1121" s="5">
+        <v>44884</v>
+      </c>
+      <c r="F1121" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1122" s="3">
+        <v>338958</v>
+      </c>
+      <c r="B1122" s="4">
+        <v>567.904</v>
+      </c>
+      <c r="C1122" s="4">
+        <v>7.7809999999999997</v>
+      </c>
+      <c r="D1122" s="4">
+        <v>192</v>
+      </c>
+      <c r="E1122" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1123" s="3">
+        <v>668461</v>
+      </c>
+      <c r="B1123" s="4">
+        <v>159.97499999999999</v>
+      </c>
+      <c r="C1123" s="4">
+        <v>8.0589999999999993</v>
+      </c>
+      <c r="D1123" s="4">
+        <v>111</v>
+      </c>
+      <c r="E1123" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1124" s="3">
+        <v>632856</v>
+      </c>
+      <c r="B1124" s="4">
+        <v>76.899000000000001</v>
+      </c>
+      <c r="C1124" s="4">
+        <v>7.4550000000000001</v>
+      </c>
+      <c r="D1124" s="4">
+        <v>67</v>
+      </c>
+      <c r="E1124" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1124" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1125" s="3">
+        <v>436270</v>
+      </c>
+      <c r="B1125" s="4">
+        <v>17020.708999999999</v>
+      </c>
+      <c r="C1125" s="4">
+        <v>6.8440000000000003</v>
+      </c>
+      <c r="D1125" s="4">
+        <v>1229</v>
+      </c>
+      <c r="E1125" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1125" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1126" s="3">
+        <v>505642</v>
+      </c>
+      <c r="B1126" s="4">
+        <v>4248.6170000000002</v>
+      </c>
+      <c r="C1126" s="4">
+        <v>7.5049999999999999</v>
+      </c>
+      <c r="D1126" s="4">
+        <v>856</v>
+      </c>
+      <c r="E1126" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1126" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1127" s="3">
+        <v>823766</v>
+      </c>
+      <c r="B1127" s="4">
+        <v>130.904</v>
+      </c>
+      <c r="C1127" s="4">
+        <v>6.8769999999999998</v>
+      </c>
+      <c r="D1127" s="4">
+        <v>130</v>
+      </c>
+      <c r="E1127" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1127" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1128" s="3">
+        <v>802372</v>
+      </c>
+      <c r="B1128" s="4">
+        <v>96.522000000000006</v>
+      </c>
+      <c r="C1128" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="D1128" s="4">
+        <v>20</v>
+      </c>
+      <c r="E1128" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1128" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1129" s="3">
+        <v>457232</v>
+      </c>
+      <c r="B1129" s="4">
+        <v>130.10499999999999</v>
+      </c>
+      <c r="C1129" s="4">
+        <v>6.35</v>
+      </c>
+      <c r="D1129" s="4">
+        <v>20</v>
+      </c>
+      <c r="E1129" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1129" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1130" s="3">
+        <v>882598</v>
+      </c>
+      <c r="B1130" s="4">
+        <v>4674.4369999999999</v>
+      </c>
+      <c r="C1130" s="4">
+        <v>6.86</v>
+      </c>
+      <c r="D1130" s="4">
+        <v>739</v>
+      </c>
+      <c r="E1130" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1130" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1131" s="3">
+        <v>936960</v>
+      </c>
+      <c r="B1131" s="4">
+        <v>138.80699999999999</v>
+      </c>
+      <c r="C1131" s="4">
+        <v>5.6289999999999996</v>
+      </c>
+      <c r="D1131" s="4">
+        <v>31</v>
+      </c>
+      <c r="E1131" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1131" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1132" s="3">
+        <v>361743</v>
+      </c>
+      <c r="B1132" s="4">
+        <v>998.39700000000005</v>
+      </c>
+      <c r="C1132" s="4">
+        <v>8.3460000000000001</v>
+      </c>
+      <c r="D1132" s="4">
+        <v>4790</v>
+      </c>
+      <c r="E1132" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1132" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1133" s="3">
+        <v>929340</v>
+      </c>
+      <c r="B1133" s="4">
+        <v>46.176000000000002</v>
+      </c>
+      <c r="C1133" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1133" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1133" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1133" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1134" s="3">
+        <v>619730</v>
+      </c>
+      <c r="B1134" s="4">
+        <v>566.32100000000003</v>
+      </c>
+      <c r="C1134" s="4">
+        <v>6.9109999999999996</v>
+      </c>
+      <c r="D1134" s="4">
+        <v>981</v>
+      </c>
+      <c r="E1134" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1134" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1135" s="3">
+        <v>754452</v>
+      </c>
+      <c r="B1135" s="4">
+        <v>98.489000000000004</v>
+      </c>
+      <c r="C1135" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="D1135" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1135" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1135" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1136" s="3">
+        <v>593643</v>
+      </c>
+      <c r="B1136" s="4">
+        <v>259.17500000000001</v>
+      </c>
+      <c r="C1136" s="4">
+        <v>7.6059999999999999</v>
+      </c>
+      <c r="D1136" s="4">
+        <v>80</v>
+      </c>
+      <c r="E1136" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1136" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1137" s="3">
+        <v>939210</v>
+      </c>
+      <c r="B1137" s="4">
+        <v>101.44799999999999</v>
+      </c>
+      <c r="C1137" s="4">
+        <v>7</v>
+      </c>
+      <c r="D1137" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1137" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1137" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1138" s="3">
+        <v>829280</v>
+      </c>
+      <c r="B1138" s="4">
+        <v>2096.3609999999999</v>
+      </c>
+      <c r="C1138" s="4">
+        <v>7.7190000000000003</v>
+      </c>
+      <c r="D1138" s="4">
+        <v>1006</v>
+      </c>
+      <c r="E1138" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1138" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1139" s="3">
+        <v>817758</v>
+      </c>
+      <c r="B1139" s="4">
+        <v>185.43100000000001</v>
+      </c>
+      <c r="C1139" s="4">
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="D1139" s="4">
+        <v>38</v>
+      </c>
+      <c r="E1139" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1139" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1140" s="3">
+        <v>616037</v>
+      </c>
+      <c r="B1140" s="4">
+        <v>1107.403</v>
+      </c>
+      <c r="C1140" s="4">
+        <v>6.7069999999999999</v>
+      </c>
+      <c r="D1140" s="4">
+        <v>4698</v>
+      </c>
+      <c r="E1140" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1140" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1141" s="3">
+        <v>718930</v>
+      </c>
+      <c r="B1141" s="4">
+        <v>1005.427</v>
+      </c>
+      <c r="C1141" s="4">
+        <v>7.5119999999999996</v>
+      </c>
+      <c r="D1141" s="4">
+        <v>2382</v>
+      </c>
+      <c r="E1141" s="5">
+        <v>44885</v>
+      </c>
+      <c r="F1141" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1142" s="3">
+        <v>436270</v>
+      </c>
+      <c r="B1142" s="4">
+        <v>22201.949000000001</v>
+      </c>
+      <c r="C1142" s="4">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="D1142" s="4">
+        <v>1517</v>
+      </c>
+      <c r="E1142" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1143" s="3">
+        <v>724495</v>
+      </c>
+      <c r="B1143" s="4">
+        <v>296.52300000000002</v>
+      </c>
+      <c r="C1143" s="4">
+        <v>7.5410000000000004</v>
+      </c>
+      <c r="D1143" s="4">
+        <v>327</v>
+      </c>
+      <c r="E1143" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1143" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1144" s="3">
+        <v>338958</v>
+      </c>
+      <c r="B1144" s="4">
+        <v>1113.0920000000001</v>
+      </c>
+      <c r="C1144" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="D1144" s="4">
+        <v>278</v>
+      </c>
+      <c r="E1144" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1144" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1145" s="3">
+        <v>830784</v>
+      </c>
+      <c r="B1145" s="4">
+        <v>269.87700000000001</v>
+      </c>
+      <c r="C1145" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="D1145" s="4">
+        <v>30</v>
+      </c>
+      <c r="E1145" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1145" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1146" s="3">
+        <v>668461</v>
+      </c>
+      <c r="B1146" s="4">
+        <v>313.55099999999999</v>
+      </c>
+      <c r="C1146" s="4">
+        <v>8</v>
+      </c>
+      <c r="D1146" s="4">
+        <v>166</v>
+      </c>
+      <c r="E1146" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1146" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1147" s="3">
+        <v>505642</v>
+      </c>
+      <c r="B1147" s="4">
+        <v>3237.8820000000001</v>
+      </c>
+      <c r="C1147" s="4">
+        <v>7.4889999999999999</v>
+      </c>
+      <c r="D1147" s="4">
+        <v>938</v>
+      </c>
+      <c r="E1147" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1147" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1148" s="3">
+        <v>497828</v>
+      </c>
+      <c r="B1148" s="4">
+        <v>53.494</v>
+      </c>
+      <c r="C1148" s="4">
+        <v>7.6719999999999997</v>
+      </c>
+      <c r="D1148" s="4">
+        <v>279</v>
+      </c>
+      <c r="E1148" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1148" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1149" s="3">
+        <v>632856</v>
+      </c>
+      <c r="B1149" s="4">
+        <v>150.72300000000001</v>
+      </c>
+      <c r="C1149" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="D1149" s="4">
+        <v>90</v>
+      </c>
+      <c r="E1149" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1149" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1150" s="3">
+        <v>615952</v>
+      </c>
+      <c r="B1150" s="4">
+        <v>33.634</v>
+      </c>
+      <c r="C1150" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D1150" s="4">
+        <v>60</v>
+      </c>
+      <c r="E1150" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1150" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1151" s="3">
+        <v>76600</v>
+      </c>
+      <c r="B1151" s="4">
+        <v>740.07899999999995</v>
+      </c>
+      <c r="C1151" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1151" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1151" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1151" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1152" s="3">
+        <v>1049233</v>
+      </c>
+      <c r="B1152" s="4">
+        <v>10.542999999999999</v>
+      </c>
+      <c r="C1152" s="4">
+        <v>6</v>
+      </c>
+      <c r="D1152" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1152" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1152" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1153" s="3">
+        <v>854239</v>
+      </c>
+      <c r="B1153" s="4">
+        <v>18.826000000000001</v>
+      </c>
+      <c r="C1153" s="4">
+        <v>8</v>
+      </c>
+      <c r="D1153" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1153" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1153" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1154" s="3">
+        <v>823766</v>
+      </c>
+      <c r="B1154" s="4">
+        <v>256.572</v>
+      </c>
+      <c r="C1154" s="4">
+        <v>6.8650000000000002</v>
+      </c>
+      <c r="D1154" s="4">
+        <v>171</v>
+      </c>
+      <c r="E1154" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1154" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1155" s="3">
+        <v>802372</v>
+      </c>
+      <c r="B1155" s="4">
+        <v>189.18299999999999</v>
+      </c>
+      <c r="C1155" s="4">
+        <v>5.9169999999999998</v>
+      </c>
+      <c r="D1155" s="4">
+        <v>30</v>
+      </c>
+      <c r="E1155" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1155" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1156" s="3">
+        <v>821881</v>
+      </c>
+      <c r="B1156" s="4">
+        <v>7.6219999999999999</v>
+      </c>
+      <c r="C1156" s="4">
+        <v>10</v>
+      </c>
+      <c r="D1156" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1156" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1156" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1157" s="3">
+        <v>882598</v>
+      </c>
+      <c r="B1157" s="4">
+        <v>2837.2829999999999</v>
+      </c>
+      <c r="C1157" s="4">
+        <v>6.8129999999999997</v>
+      </c>
+      <c r="D1157" s="4">
+        <v>823</v>
+      </c>
+      <c r="E1157" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1157" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1158" s="3">
+        <v>457232</v>
+      </c>
+      <c r="B1158" s="4">
+        <v>110.999</v>
+      </c>
+      <c r="C1158" s="4">
+        <v>6.968</v>
+      </c>
+      <c r="D1158" s="4">
+        <v>31</v>
+      </c>
+      <c r="E1158" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1158" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1159" s="3">
+        <v>1038627</v>
+      </c>
+      <c r="B1159" s="4">
+        <v>36.863</v>
+      </c>
+      <c r="C1159" s="4">
+        <v>5</v>
+      </c>
+      <c r="D1159" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1159" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1159" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1160" s="3">
+        <v>877269</v>
+      </c>
+      <c r="B1160" s="4">
+        <v>280.93900000000002</v>
+      </c>
+      <c r="C1160" s="4">
+        <v>6</v>
+      </c>
+      <c r="D1160" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1160" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1160" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1161" s="3">
+        <v>593643</v>
+      </c>
+      <c r="B1161" s="4">
+        <v>507.983</v>
+      </c>
+      <c r="C1161" s="4">
+        <v>7.452</v>
+      </c>
+      <c r="D1161" s="4">
+        <v>135</v>
+      </c>
+      <c r="E1161" s="5">
+        <v>44888</v>
+      </c>
+      <c r="F1161" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1162" s="3">
+        <v>436270</v>
+      </c>
+      <c r="B1162" s="4">
+        <v>17944.112000000001</v>
+      </c>
+      <c r="C1162" s="4">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="D1162" s="4">
+        <v>1690</v>
+      </c>
+      <c r="E1162" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1163" s="3">
+        <v>830784</v>
+      </c>
+      <c r="B1163" s="4">
+        <v>458.30700000000002</v>
+      </c>
+      <c r="C1163" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="D1163" s="4">
+        <v>33</v>
+      </c>
+      <c r="E1163" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1163" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1164" s="3">
+        <v>724495</v>
+      </c>
+      <c r="B1164" s="4">
+        <v>581.18499999999995</v>
+      </c>
+      <c r="C1164" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="D1164" s="4">
+        <v>385</v>
+      </c>
+      <c r="E1164" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1164" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1165" s="3">
+        <v>615952</v>
+      </c>
+      <c r="B1165" s="4">
+        <v>65.923000000000002</v>
+      </c>
+      <c r="C1165" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D1165" s="4">
+        <v>68</v>
+      </c>
+      <c r="E1165" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1165" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1166" s="3">
+        <v>1049233</v>
+      </c>
+      <c r="B1166" s="4">
+        <v>14.76</v>
+      </c>
+      <c r="C1166" s="4">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="D1166" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1166" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1166" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1167" s="3">
+        <v>821881</v>
+      </c>
+      <c r="B1167" s="4">
+        <v>14.939</v>
+      </c>
+      <c r="C1167" s="4">
+        <v>8.9380000000000006</v>
+      </c>
+      <c r="D1167" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1167" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1167" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1168" s="3">
+        <v>505642</v>
+      </c>
+      <c r="B1168" s="4">
+        <v>2806.4679999999998</v>
+      </c>
+      <c r="C1168" s="4">
+        <v>7.4829999999999997</v>
+      </c>
+      <c r="D1168" s="4">
+        <v>969</v>
+      </c>
+      <c r="E1168" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1168" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1169" s="3">
+        <v>338958</v>
+      </c>
+      <c r="B1169" s="4">
+        <v>2181.6610000000001</v>
+      </c>
+      <c r="C1169" s="4">
+        <v>7.5389999999999997</v>
+      </c>
+      <c r="D1169" s="4">
+        <v>319</v>
+      </c>
+      <c r="E1169" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1169" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1170" s="3">
+        <v>1038627</v>
+      </c>
+      <c r="B1170" s="4">
+        <v>51.607999999999997</v>
+      </c>
+      <c r="C1170" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="D1170" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1170" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1170" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1171" s="3">
+        <v>736918</v>
+      </c>
+      <c r="B1171" s="4">
+        <v>52.081000000000003</v>
+      </c>
+      <c r="C1171" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D1171" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1171" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1171" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1172" s="3">
+        <v>668461</v>
+      </c>
+      <c r="B1172" s="4">
+        <v>614.55899999999997</v>
+      </c>
+      <c r="C1172" s="4">
+        <v>8.0730000000000004</v>
+      </c>
+      <c r="D1172" s="4">
+        <v>185</v>
+      </c>
+      <c r="E1172" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1172" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1173" s="3">
+        <v>632856</v>
+      </c>
+      <c r="B1173" s="4">
+        <v>295.41699999999997</v>
+      </c>
+      <c r="C1173" s="4">
+        <v>7.4349999999999996</v>
+      </c>
+      <c r="D1173" s="4">
+        <v>100</v>
+      </c>
+      <c r="E1173" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1173" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1174" s="3">
+        <v>497828</v>
+      </c>
+      <c r="B1174" s="4">
+        <v>104.849</v>
+      </c>
+      <c r="C1174" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="D1174" s="4">
+        <v>288</v>
+      </c>
+      <c r="E1174" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1174" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1175" s="3">
+        <v>854239</v>
+      </c>
+      <c r="B1175" s="4">
+        <v>36.898000000000003</v>
+      </c>
+      <c r="C1175" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="D1175" s="4">
+        <v>19</v>
+      </c>
+      <c r="E1175" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1175" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1176" s="3">
+        <v>1044043</v>
+      </c>
+      <c r="B1176" s="4">
+        <v>36.960999999999999</v>
+      </c>
+      <c r="C1176" s="4">
+        <v>10</v>
+      </c>
+      <c r="D1176" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1176" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1176" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1177" s="3">
+        <v>76600</v>
+      </c>
+      <c r="B1177" s="4">
+        <v>755.36199999999997</v>
+      </c>
+      <c r="C1177" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1177" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1177" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1177" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1178" s="3">
+        <v>361743</v>
+      </c>
+      <c r="B1178" s="4">
+        <v>597.07899999999995</v>
+      </c>
+      <c r="C1178" s="4">
+        <v>8.343</v>
+      </c>
+      <c r="D1178" s="4">
+        <v>4829</v>
+      </c>
+      <c r="E1178" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1178" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1179" s="3">
+        <v>877269</v>
+      </c>
+      <c r="B1179" s="4">
+        <v>280.76900000000001</v>
+      </c>
+      <c r="C1179" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="D1179" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1179" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1179" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1180" s="3">
+        <v>823766</v>
+      </c>
+      <c r="B1180" s="4">
+        <v>345.666</v>
+      </c>
+      <c r="C1180" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D1180" s="4">
+        <v>179</v>
+      </c>
+      <c r="E1180" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1180" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1181" s="3">
+        <v>882598</v>
+      </c>
+      <c r="B1181" s="4">
+        <v>2300.9520000000002</v>
+      </c>
+      <c r="C1181" s="4">
+        <v>6.8029999999999999</v>
+      </c>
+      <c r="D1181" s="4">
+        <v>860</v>
+      </c>
+      <c r="E1181" s="5">
+        <v>44889</v>
+      </c>
+      <c r="F1181" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1182" s="3">
+        <v>774752</v>
+      </c>
+      <c r="B1182" s="4">
+        <v>140.459</v>
+      </c>
+      <c r="C1182" s="4">
+        <v>7.4690000000000003</v>
+      </c>
+      <c r="D1182" s="4">
+        <v>162</v>
+      </c>
+      <c r="E1182" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1183" s="3">
+        <v>436270</v>
+      </c>
+      <c r="B1183" s="4">
+        <v>16093.223</v>
+      </c>
+      <c r="C1183" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="D1183" s="4">
+        <v>1865</v>
+      </c>
+      <c r="E1183" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1183" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1184" s="3">
+        <v>830784</v>
+      </c>
+      <c r="B1184" s="4">
+        <v>641.63</v>
+      </c>
+      <c r="C1184" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D1184" s="4">
+        <v>38</v>
+      </c>
+      <c r="E1184" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1184" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1185" s="3">
+        <v>724495</v>
+      </c>
+      <c r="B1185" s="4">
+        <v>813.65899999999999</v>
+      </c>
+      <c r="C1185" s="4">
+        <v>7.78</v>
+      </c>
+      <c r="D1185" s="4">
+        <v>436</v>
+      </c>
+      <c r="E1185" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1185" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1186" s="3">
+        <v>1049233</v>
+      </c>
+      <c r="B1186" s="4">
+        <v>28.93</v>
+      </c>
+      <c r="C1186" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="D1186" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1186" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1186" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1187" s="3">
+        <v>736918</v>
+      </c>
+      <c r="B1187" s="4">
+        <v>72.912999999999997</v>
+      </c>
+      <c r="C1187" s="4">
+        <v>7.5149999999999997</v>
+      </c>
+      <c r="D1187" s="4">
+        <v>33</v>
+      </c>
+      <c r="E1187" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1187" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1188" s="3">
+        <v>505642</v>
+      </c>
+      <c r="B1188" s="4">
+        <v>2575.3519999999999</v>
+      </c>
+      <c r="C1188" s="4">
+        <v>7.4969999999999999</v>
+      </c>
+      <c r="D1188" s="4">
+        <v>1009</v>
+      </c>
+      <c r="E1188" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1188" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1189" s="3">
+        <v>338958</v>
+      </c>
+      <c r="B1189" s="4">
+        <v>3054.3249999999998</v>
+      </c>
+      <c r="C1189" s="4">
+        <v>7.5419999999999998</v>
+      </c>
+      <c r="D1189" s="4">
+        <v>347</v>
+      </c>
+      <c r="E1189" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1189" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1190" s="3">
+        <v>843543</v>
+      </c>
+      <c r="B1190" s="4">
+        <v>40559</v>
+      </c>
+      <c r="C1190" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="D1190" s="4">
+        <v>38</v>
+      </c>
+      <c r="E1190" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1190" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1191" s="3">
+        <v>1006917</v>
+      </c>
+      <c r="B1191" s="4">
+        <v>5.2469999999999999</v>
+      </c>
+      <c r="C1191" s="4">
+        <v>6.133</v>
+      </c>
+      <c r="D1191" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1191" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1191" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1192" s="3">
+        <v>632856</v>
+      </c>
+      <c r="B1192" s="4">
+        <v>413.584</v>
+      </c>
+      <c r="C1192" s="4">
+        <v>7.3319999999999999</v>
+      </c>
+      <c r="D1192" s="4">
+        <v>119</v>
+      </c>
+      <c r="E1192" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1192" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1193" s="3">
+        <v>668461</v>
+      </c>
+      <c r="B1193" s="4">
+        <v>860.38300000000004</v>
+      </c>
+      <c r="C1193" s="4">
+        <v>8.0310000000000006</v>
+      </c>
+      <c r="D1193" s="4">
+        <v>223</v>
+      </c>
+      <c r="E1193" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1193" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1194" s="3">
+        <v>615952</v>
+      </c>
+      <c r="B1194" s="4">
+        <v>92.292000000000002</v>
+      </c>
+      <c r="C1194" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="D1194" s="4">
+        <v>76</v>
+      </c>
+      <c r="E1194" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1194" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1195" s="3">
+        <v>1038627</v>
+      </c>
+      <c r="B1195" s="4">
+        <v>101.151</v>
+      </c>
+      <c r="C1195" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D1195" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1195" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1195" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1196" s="3">
+        <v>987919</v>
+      </c>
+      <c r="B1196" s="4">
+        <v>99.632000000000005</v>
+      </c>
+      <c r="C1196" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D1196" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1196" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1196" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1197" s="3">
+        <v>497828</v>
+      </c>
+      <c r="B1197" s="4">
+        <v>111.227</v>
+      </c>
+      <c r="C1197" s="4">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="D1197" s="4">
+        <v>295</v>
+      </c>
+      <c r="E1197" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1197" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1198" s="3">
+        <v>76600</v>
+      </c>
+      <c r="B1198" s="4">
+        <v>715.73099999999999</v>
+      </c>
+      <c r="C1198" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1198" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1198" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1198" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1199" s="3">
+        <v>987919</v>
+      </c>
+      <c r="B1199" s="4">
+        <v>99.632000000000005</v>
+      </c>
+      <c r="C1199" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D1199" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1199" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1199" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1200" s="3">
+        <v>821881</v>
+      </c>
+      <c r="B1200" s="4">
+        <v>20.914999999999999</v>
+      </c>
+      <c r="C1200" s="4">
+        <v>8.3670000000000009</v>
+      </c>
+      <c r="D1200" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1200" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1200" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1201" s="3">
+        <v>497828</v>
+      </c>
+      <c r="B1201" s="4">
+        <v>111.227</v>
+      </c>
+      <c r="C1201" s="4">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="D1201" s="4">
+        <v>295</v>
+      </c>
+      <c r="E1201" s="5">
+        <v>44891</v>
+      </c>
+      <c r="F1201" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1202" s="3">
+        <v>436270</v>
+      </c>
+      <c r="B1202" s="4">
+        <v>15075.276</v>
+      </c>
+      <c r="C1202" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="D1202" s="4">
+        <v>1888</v>
+      </c>
+      <c r="E1202" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1202" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1203" s="3">
+        <v>1013860</v>
+      </c>
+      <c r="B1203" s="4">
+        <v>6040.3879999999999</v>
+      </c>
+      <c r="C1203" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D1203" s="4">
+        <v>152</v>
+      </c>
+      <c r="E1203" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1203" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1204" s="3">
+        <v>338958</v>
+      </c>
+      <c r="B1204" s="4">
+        <v>3316.598</v>
+      </c>
+      <c r="C1204" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D1204" s="4">
+        <v>352</v>
+      </c>
+      <c r="E1204" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1204" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1205" s="3">
+        <v>988233</v>
+      </c>
+      <c r="B1205" s="4">
+        <v>2649.7350000000001</v>
+      </c>
+      <c r="C1205" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1205" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1205" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1205" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1206" s="3">
+        <v>829799</v>
+      </c>
+      <c r="B1206" s="4">
+        <v>2757.3290000000002</v>
+      </c>
+      <c r="C1206" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="D1206" s="4">
+        <v>17</v>
+      </c>
+      <c r="E1206" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1206" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1207" s="3">
+        <v>505642</v>
+      </c>
+      <c r="B1207" s="4">
+        <v>2506.8220000000001</v>
+      </c>
+      <c r="C1207" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D1207" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E1207" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1207" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1208" s="3">
+        <v>882598</v>
+      </c>
+      <c r="B1208" s="4">
+        <v>2103.3879999999999</v>
+      </c>
+      <c r="C1208" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D1208" s="4">
+        <v>893</v>
+      </c>
+      <c r="E1208" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1208" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1209" s="3">
+        <v>551271</v>
+      </c>
+      <c r="B1209" s="4">
+        <v>2489.7049999999999</v>
+      </c>
+      <c r="C1209" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="D1209" s="4">
+        <v>179</v>
+      </c>
+      <c r="E1209" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1209" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1210" s="3">
+        <v>862965</v>
+      </c>
+      <c r="B1210" s="4">
+        <v>1989.7670000000001</v>
+      </c>
+      <c r="C1210" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="D1210" s="4">
+        <v>200</v>
+      </c>
+      <c r="E1210" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1210" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1211" s="3">
+        <v>966220</v>
+      </c>
+      <c r="B1211" s="4">
+        <v>2373.71</v>
+      </c>
+      <c r="C1211" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="D1211" s="4">
+        <v>126</v>
+      </c>
+      <c r="E1211" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1211" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1212" s="3">
+        <v>948276</v>
+      </c>
+      <c r="B1212" s="4">
+        <v>1984.403</v>
+      </c>
+      <c r="C1212" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D1212" s="4">
+        <v>120</v>
+      </c>
+      <c r="E1212" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1212" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1213" s="3">
+        <v>899294</v>
+      </c>
+      <c r="B1213" s="4">
+        <v>1675.71</v>
+      </c>
+      <c r="C1213" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="D1213" s="4">
+        <v>32</v>
+      </c>
+      <c r="E1213" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1213" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1214" s="3">
+        <v>846778</v>
+      </c>
+      <c r="B1214" s="4">
+        <v>1600.577</v>
+      </c>
+      <c r="C1214" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D1214" s="4">
+        <v>40</v>
+      </c>
+      <c r="E1214" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1214" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1215" s="3">
+        <v>829280</v>
+      </c>
+      <c r="B1215" s="4">
+        <v>1589.105</v>
+      </c>
+      <c r="C1215" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="D1215" s="4">
+        <v>1118</v>
+      </c>
+      <c r="E1215" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1215" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1216" s="3">
+        <v>979924</v>
+      </c>
+      <c r="B1216" s="4">
+        <v>1811.3820000000001</v>
+      </c>
+      <c r="C1216" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="D1216" s="4">
+        <v>139</v>
+      </c>
+      <c r="E1216" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1216" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1217" s="3">
+        <v>676701</v>
+      </c>
+      <c r="B1217" s="4">
+        <v>1349.538</v>
+      </c>
+      <c r="C1217" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="D1217" s="4">
+        <v>117</v>
+      </c>
+      <c r="E1217" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1217" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1218" s="3">
+        <v>1037858</v>
+      </c>
+      <c r="B1218" s="4">
+        <v>1471.616</v>
+      </c>
+      <c r="C1218" s="4">
+        <v>7</v>
+      </c>
+      <c r="D1218" s="4">
+        <v>39</v>
+      </c>
+      <c r="E1218" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1218" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1219" s="3">
+        <v>872177</v>
+      </c>
+      <c r="B1219" s="4">
+        <v>1552.3889999999999</v>
+      </c>
+      <c r="C1219" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D1219" s="4">
+        <v>28</v>
+      </c>
+      <c r="E1219" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1219" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1220" s="3">
+        <v>732459</v>
+      </c>
+      <c r="B1220" s="4">
+        <v>1310.2249999999999</v>
+      </c>
+      <c r="C1220" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="D1220" s="4">
+        <v>81</v>
+      </c>
+      <c r="E1220" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1220" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1221" s="3">
+        <v>1018403</v>
+      </c>
+      <c r="B1221" s="4">
+        <v>1330.3710000000001</v>
+      </c>
+      <c r="C1221" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="D1221" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1221" s="5">
+        <v>44892</v>
+      </c>
+      <c r="F1221" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1222" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1223" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1223" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1224" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1224" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1225" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1225" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1226" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1226" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1227" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1227" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1228" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1228" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1229" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1229" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1230" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1230" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1231" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1231" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1232" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1232" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1233" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E1233" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1233" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1234" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E1234" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1234" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1235" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E1235" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1235" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1236" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E1236" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1236" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1237" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E1237" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1237" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1238" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E1238" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1238" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1239" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E1239" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1239" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1240" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E1240" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1240" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1241" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E1241" s="5">
+        <v>44893</v>
+      </c>
+      <c r="F1241" s="3">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
